--- a/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,83; 3,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 4,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 11,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 7,13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 6,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 5,37</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>52,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>145,62%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>247,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>177,63%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,83%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-78,35; 586,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-41,6; 682,97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49,9; 824,37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 698,88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,24; 459,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,51; 480,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 5,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 4,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 8,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 3,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 6,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,74%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,17; 505,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,87; 431,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,6; 898,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,29; 118,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 96,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,53; 202,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 130,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; 120,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,74; 229,31</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 8,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 6,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 12,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 3,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,3; 9,83</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>463,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2112,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>406,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1102,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>349,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1346,39%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,27; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,21; 2168,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>365,79; 4342,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1227,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,81; 1929,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>468,92; 5359,32</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 8,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 6,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 10,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 9,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 6,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 8,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>411,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>259,22%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,35; 552,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,26; 716,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,35; 1621,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,03; 329,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,89; 542,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,75; 525,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 284,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,19; 440,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,05; 603,35</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 3,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 5,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 4,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 17,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 8,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 8,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 9,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 5,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 6,19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,9; 418,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,84; 721,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,6; 560,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,3; 495,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,39; 251,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,03; 304,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,61; 373,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,71; 193,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,16; 249,91</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 1,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 5,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 11,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 4,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 12,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,45; 17,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 2,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 8,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,85; 13,37</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,19%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>758,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>339,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>554,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>316,5%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>611,95%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; inf</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>145,09; 3079,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,54; 342,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,13; 958,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>230,32; 1481,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,37; 185,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>108,5; 764,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>304,04; 1325,81</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 0,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 5,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 6,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 0,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 7,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 10,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 0,25</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 5,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 7,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,7%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>191,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,91%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,15%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,93; 48,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 350,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,08; 465,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,08; 38,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,45; 260,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,68; 364,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,35; 11,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,77; 230,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,47; 334,9</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 1,24</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; -1,23</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 4,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,75</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 5,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,89</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; -0,12</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 3,23</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,64%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,59; 47,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,84; -38,2</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,69; 56,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; 79,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,39; 35,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 119,71</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,91; 47,14</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,33; -0,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 79,97</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,76</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 4,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 4,43</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 7,54</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 2,81</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 5,67</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,09%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,95%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,7%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,25; 45,28</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 85,92</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,8; 247,89</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,14; 85,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,66; 120,93</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,04; 206,83</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,58; 64,33</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,86; 100,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>118,6; 203,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,01</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,5</t>
+          <t>-0,59; 4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,13</t>
+          <t>1,12; 6,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 4,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,37</t>
+          <t>1,13; 4,84</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145,62%</t>
+          <t>124,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>177,63%</t>
+          <t>167,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168,83%</t>
+          <t>149,6%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,9; 469,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 682,97</t>
+          <t>-47,98; 616,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 470,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 698,88</t>
+          <t>15,99; 669,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,28; 336,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 480,52</t>
+          <t>27,51; 449,82</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>4,5</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,42</t>
+          <t>1,55; 6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,63</t>
+          <t>2,41; 8,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,66</t>
+          <t>2,55; 6,41</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>265,17%</t>
+          <t>252,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>132,74%</t>
+          <t>125,82%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,6; 898,97</t>
+          <t>61,14; 861,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 202,94</t>
+          <t>30,3; 199,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,74; 229,31</t>
+          <t>54,07; 219,4</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>7,87</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,23</t>
+          <t>3,66; 8,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,82</t>
+          <t>7,1; 12,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,83</t>
+          <t>6,13; 9,6</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2112,29%</t>
+          <t>2057,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1102,12%</t>
+          <t>1086,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1346,39%</t>
+          <t>1312,34%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>365,79; 4342,33</t>
+          <t>355,62; 4285,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>468,92; 5359,32</t>
+          <t>452,67; 5196,72</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,76</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,33</t>
+          <t>-1,27; 2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,49</t>
+          <t>2,08; 8,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,37</t>
+          <t>1,23; 7,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 9,33</t>
+          <t>0,65; 7,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,74</t>
+          <t>0,71; 4,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,0</t>
+          <t>2,41; 7,09</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>411,23%</t>
+          <t>406,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>118,77%</t>
+          <t>142,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>190,17%</t>
+          <t>140,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>103,31%</t>
+          <t>118,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>259,22%</t>
+          <t>219,86%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 552,2</t>
+          <t>-71,09; 577,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,35; 1621,16</t>
+          <t>42,6; 1642,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,03; 329,9</t>
+          <t>19,38; 366,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,75; 525,08</t>
+          <t>18,45; 433,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,89; 284,37</t>
+          <t>17,23; 307,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>113,05; 603,35</t>
+          <t>85,22; 534,6</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,63</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,4</t>
+          <t>-1,47; 4,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,92</t>
+          <t>0,75; 9,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,19</t>
+          <t>1,23; 6,2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>69,72%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 560,03</t>
+          <t>-47,53; 551,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,03; 304,09</t>
+          <t>3,61; 305,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,16; 249,91</t>
+          <t>22,14; 251,38</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>10,93</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,64</t>
+          <t>5,47; 11,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,45; 17,76</t>
+          <t>10,47; 17,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,37</t>
+          <t>8,7; 13,14</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>758,83%</t>
+          <t>742,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>554,64%</t>
+          <t>553,84%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>611,95%</t>
+          <t>602,14%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>145,09; 3079,48</t>
+          <t>140,03; 3005,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>230,32; 1481,66</t>
+          <t>230,32; 1485,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>304,04; 1325,81</t>
+          <t>297,81; 1296,1</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>4,95</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,18</t>
+          <t>1,56; 6,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,42</t>
+          <t>-0,09; 9,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,77</t>
+          <t>1,87; 6,98</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>182,47%</t>
+          <t>175,94%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>191,54%</t>
+          <t>151,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>198,15%</t>
+          <t>168,62%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>50,08; 465,36</t>
+          <t>44,74; 456,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>65,68; 364,06</t>
+          <t>16,06; 313,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>98,47; 334,9</t>
+          <t>60,26; 297,29</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,62</t>
+          <t>-3,58; 0,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,04; 5,92</t>
+          <t>0,13; 5,79</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,23</t>
+          <t>-1,84; 2,51</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-2,98%</t>
+          <t>-23,41%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 56,54</t>
+          <t>-71,66; 24,02</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,22; 119,71</t>
+          <t>1,61; 117,84</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 79,97</t>
+          <t>-33,5; 57,08</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,33</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,11</t>
+          <t>1,59; 3,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,54</t>
+          <t>3,75; 7,07</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,67</t>
+          <t>3,22; 5,15</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>164,09%</t>
+          <t>144,77%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>150,95%</t>
+          <t>136,4%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>158,7%</t>
+          <t>140,04%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>97,8; 247,89</t>
+          <t>70,26; 226,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>107,04; 206,83</t>
+          <t>87,58; 190,86</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>118,6; 203,99</t>
+          <t>98,22; 185,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,13</t>
+          <t>-1,54; 3,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,44</t>
+          <t>-1,37; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,03</t>
+          <t>-0,6; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,04</t>
+          <t>0,02; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 11,01</t>
+          <t>2,53; 10,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,83</t>
+          <t>1,05; 7,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,07</t>
+          <t>0,04; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,17</t>
+          <t>1,29; 6,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,84</t>
+          <t>1,14; 4,82</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 469,86</t>
+          <t>-77,37; 722,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,35; 586,0</t>
+          <t>-74,39; 620,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 616,84</t>
+          <t>-31,74; 732,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 470,65</t>
+          <t>-16,96; 550,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,9; 824,37</t>
+          <t>32,64; 981,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 669,46</t>
+          <t>19,55; 630,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 336,98</t>
+          <t>-7,03; 338,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 459,43</t>
+          <t>36,65; 495,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,51; 449,82</t>
+          <t>29,22; 396,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,51</t>
+          <t>-0,76; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,19</t>
+          <t>-0,32; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,21</t>
+          <t>1,6; 6,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,36</t>
+          <t>-1,2; 5,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,2</t>
+          <t>-1,98; 4,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,53</t>
+          <t>2,29; 8,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,51</t>
+          <t>-0,21; 3,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,21</t>
+          <t>-0,33; 3,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,41</t>
+          <t>2,8; 6,57</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 505,8</t>
+          <t>-47,74; 418,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 431,13</t>
+          <t>-33,85; 398,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,14; 861,99</t>
+          <t>66,5; 842,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 118,84</t>
+          <t>-17,63; 112,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 96,88</t>
+          <t>-28,91; 106,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 199,37</t>
+          <t>32,23; 194,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 130,76</t>
+          <t>-6,52; 126,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 120,07</t>
+          <t>-10,66; 122,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,07; 219,4</t>
+          <t>58,67; 237,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,04</t>
+          <t>0,15; 3,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,07</t>
+          <t>-0,28; 1,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,05</t>
+          <t>3,58; 8,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,54</t>
+          <t>-0,3; 3,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,59</t>
+          <t>1,51; 6,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,65</t>
+          <t>7,24; 12,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,86</t>
+          <t>0,19; 2,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,71</t>
+          <t>0,85; 3,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,6</t>
+          <t>6,25; 10,05</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,27; —</t>
+          <t>-54,86; 1306,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,21; 2168,91</t>
+          <t>46,47; 2477,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>355,62; 4285,68</t>
+          <t>253,49; 4013,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1227,92</t>
+          <t>-12,04; 1197,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,81; 1929,98</t>
+          <t>50,27; 1583,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>452,67; 5196,72</t>
+          <t>422,58; 4929,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,64</t>
+          <t>-1,07; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,1</t>
+          <t>-0,62; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,49</t>
+          <t>2,29; 8,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,45</t>
+          <t>1,15; 7,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,14</t>
+          <t>3,25; 10,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,74</t>
+          <t>0,35; 7,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,43</t>
+          <t>0,83; 4,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,14</t>
+          <t>1,91; 6,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,09</t>
+          <t>2,52; 7,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 577,35</t>
+          <t>-65,47; 676,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 716,88</t>
+          <t>-51,14; 625,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,6; 1642,84</t>
+          <t>53,69; 1506,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,38; 366,11</t>
+          <t>22,49; 416,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>62,89; 542,35</t>
+          <t>65,87; 540,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,45; 433,63</t>
+          <t>6,28; 399,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,23; 307,13</t>
+          <t>24,41; 314,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,19; 440,21</t>
+          <t>55,33; 411,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>85,22; 534,6</t>
+          <t>79,65; 504,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,59</t>
+          <t>-2,39; 3,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,25</t>
+          <t>-1,82; 5,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,4</t>
+          <t>-1,28; 4,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,38; 17,61</t>
+          <t>5,85; 18,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 8,01</t>
+          <t>-1,62; 8,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,01</t>
+          <t>0,68; 9,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,84</t>
+          <t>3,06; 9,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,35</t>
+          <t>-0,76; 5,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,2</t>
+          <t>0,8; 6,01</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,9; 418,08</t>
+          <t>-77,71; 403,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 721,83</t>
+          <t>-64,13; 603,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 551,63</t>
+          <t>-40,51; 541,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55,3; 495,62</t>
+          <t>67,64; 547,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 251,13</t>
+          <t>-23,27; 252,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,61; 305,37</t>
+          <t>5,43; 288,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>42,61; 373,16</t>
+          <t>51,11; 359,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 193,27</t>
+          <t>-17,91; 193,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22,14; 251,38</t>
+          <t>10,81; 246,64</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,11</t>
+          <t>-2,15; 1,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,74</t>
+          <t>0,5; 5,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,46</t>
+          <t>5,22; 10,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,12</t>
+          <t>-1,95; 4,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,91</t>
+          <t>4,07; 13,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,47; 17,76</t>
+          <t>10,4; 17,51</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,04</t>
+          <t>-1,37; 2,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,58</t>
+          <t>3,12; 8,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,14</t>
+          <t>8,62; 13,33</t>
         </is>
       </c>
     </row>
@@ -1876,49 +1876,49 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,24; inf</t>
+          <t>-6,08; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>140,03; 3005,25</t>
+          <t>187,19; 2902,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 342,1</t>
+          <t>-60,1; 314,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>80,13; 958,27</t>
+          <t>83,38; 961,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>230,32; 1485,81</t>
+          <t>209,02; 1318,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 185,54</t>
+          <t>-53,58; 208,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>108,5; 764,16</t>
+          <t>106,18; 774,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>297,81; 1296,1</t>
+          <t>274,57; 1237,57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,49</t>
+          <t>-2,42; 0,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,05</t>
+          <t>0,94; 5,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,21</t>
+          <t>1,48; 6,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,86</t>
+          <t>-3,19; 0,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,34</t>
+          <t>1,83; 7,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 9,73</t>
+          <t>-0,53; 9,62</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,25</t>
+          <t>-2,23; 0,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,52</t>
+          <t>2,17; 5,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,98</t>
+          <t>1,78; 6,92</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-79,93; 48,82</t>
+          <t>-77,84; 56,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17,64; 350,52</t>
+          <t>23,25; 393,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,74; 456,44</t>
+          <t>45,08; 502,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 38,77</t>
+          <t>-67,85; 22,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>34,45; 260,05</t>
+          <t>34,74; 251,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,06; 313,53</t>
+          <t>1,15; 315,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 11,43</t>
+          <t>-59,91; 12,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>51,77; 230,6</t>
+          <t>53,36; 238,3</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>60,26; 297,29</t>
+          <t>54,25; 288,94</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,24</t>
+          <t>-2,69; 0,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -1,23</t>
+          <t>-4,5; -1,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,87</t>
+          <t>-3,52; 1,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,02</t>
+          <t>-1,02; 3,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,75</t>
+          <t>-3,2; 1,97</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,79</t>
+          <t>0,31; 5,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,89</t>
+          <t>-1,14; 2,01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,06; -0,12</t>
+          <t>-3,23; -0,16</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,51</t>
+          <t>-2,13; 2,46</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 47,75</t>
+          <t>-54,31; 35,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-87,84; -38,2</t>
+          <t>-88,32; -37,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 24,02</t>
+          <t>-68,92; 30,37</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 79,36</t>
+          <t>-14,31; 79,8</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 35,12</t>
+          <t>-41,81; 40,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,61; 117,84</t>
+          <t>3,55; 117,25</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 47,14</t>
+          <t>-19,71; 47,36</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -0,88</t>
+          <t>-55,29; -1,91</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 57,08</t>
+          <t>-35,63; 53,86</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,76</t>
+          <t>-0,62; 0,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,4</t>
+          <t>-0,02; 1,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,79</t>
+          <t>1,68; 3,78</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,18</t>
+          <t>1,11; 3,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,43</t>
+          <t>2,12; 4,4</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,07</t>
+          <t>3,98; 7,04</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,82</t>
+          <t>0,46; 1,78</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,81</t>
+          <t>1,36; 2,83</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,15</t>
+          <t>3,23; 5,13</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 45,28</t>
+          <t>-27,38; 44,9</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 85,92</t>
+          <t>-0,84; 86,63</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>70,26; 226,16</t>
+          <t>79,08; 229,36</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,14; 85,54</t>
+          <t>23,92; 85,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>49,66; 120,93</t>
+          <t>45,74; 117,74</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>87,58; 190,86</t>
+          <t>89,77; 192,54</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>13,58; 64,33</t>
+          <t>13,93; 65,96</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>40,86; 100,99</t>
+          <t>40,08; 100,38</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>98,22; 185,91</t>
+          <t>99,65; 185,41</t>
         </is>
       </c>
     </row>
